--- a/Code/Results/Cases/Case_5_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.60941043056108</v>
+        <v>12.77268770170901</v>
       </c>
       <c r="C2">
-        <v>13.45128317112337</v>
+        <v>8.008463659254954</v>
       </c>
       <c r="D2">
-        <v>6.310378363922621</v>
+        <v>9.467861914974392</v>
       </c>
       <c r="E2">
-        <v>8.607711143311596</v>
+        <v>13.62946272699476</v>
       </c>
       <c r="F2">
-        <v>22.21140423597284</v>
+        <v>30.70433110987688</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>12.51052532378967</v>
+        <v>20.51028001455473</v>
       </c>
       <c r="J2">
-        <v>5.667750474779557</v>
+        <v>9.899118514847508</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.13533586746063</v>
+        <v>16.36564763522152</v>
       </c>
       <c r="N2">
-        <v>11.78303188051671</v>
+        <v>17.44350750119754</v>
       </c>
       <c r="O2">
-        <v>15.55826943413915</v>
+        <v>22.85327421657271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.38138660525</v>
+        <v>12.28844379339649</v>
       </c>
       <c r="C3">
-        <v>12.57599312777185</v>
+        <v>7.586567973294988</v>
       </c>
       <c r="D3">
-        <v>6.144492899775599</v>
+        <v>9.457719728724125</v>
       </c>
       <c r="E3">
-        <v>8.493267481079608</v>
+        <v>13.64549136321961</v>
       </c>
       <c r="F3">
-        <v>21.68297177096621</v>
+        <v>30.72502909154314</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>12.62351343527827</v>
+        <v>20.60406842943532</v>
       </c>
       <c r="J3">
-        <v>5.698582049322227</v>
+        <v>9.92371257768349</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.40669144228145</v>
+        <v>16.22393802648412</v>
       </c>
       <c r="N3">
-        <v>11.92524173872036</v>
+        <v>17.49257171515311</v>
       </c>
       <c r="O3">
-        <v>15.32552700751927</v>
+        <v>22.89958564744176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.5826221861787</v>
+        <v>11.98255873707429</v>
       </c>
       <c r="C4">
-        <v>12.00725434331103</v>
+        <v>7.315542951004689</v>
       </c>
       <c r="D4">
-        <v>6.042852060773484</v>
+        <v>9.452769911162248</v>
       </c>
       <c r="E4">
-        <v>8.427090439669929</v>
+        <v>13.65750522157907</v>
       </c>
       <c r="F4">
-        <v>21.37316037649383</v>
+        <v>30.74583083609345</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.70534602442637</v>
+        <v>20.66612236587333</v>
       </c>
       <c r="J4">
-        <v>5.719950596269374</v>
+        <v>9.939934116059248</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.94304089011805</v>
+        <v>16.13878318282101</v>
       </c>
       <c r="N4">
-        <v>12.0159005653079</v>
+        <v>17.52444956731057</v>
       </c>
       <c r="O4">
-        <v>15.19621247565798</v>
+        <v>22.93369522678506</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.24581807079775</v>
+        <v>11.85594305670649</v>
       </c>
       <c r="C5">
-        <v>11.76759245467187</v>
+        <v>7.202197511780051</v>
       </c>
       <c r="D5">
-        <v>6.001540555459546</v>
+        <v>9.451075920913773</v>
       </c>
       <c r="E5">
-        <v>8.401157162297986</v>
+        <v>13.66294735658087</v>
       </c>
       <c r="F5">
-        <v>21.25068246877456</v>
+        <v>30.75634032176895</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.74167088361045</v>
+        <v>20.69253136154929</v>
       </c>
       <c r="J5">
-        <v>5.729256393599065</v>
+        <v>9.946826644733601</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.7502218517726</v>
+        <v>16.10457990110735</v>
       </c>
       <c r="N5">
-        <v>12.05368039948647</v>
+        <v>17.53788156545411</v>
       </c>
       <c r="O5">
-        <v>15.14688828843877</v>
+        <v>22.94901834871412</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.18920813616741</v>
+        <v>11.83480578874728</v>
       </c>
       <c r="C6">
-        <v>11.72731929508169</v>
+        <v>7.183205080059535</v>
       </c>
       <c r="D6">
-        <v>5.994688957841505</v>
+        <v>9.450814200735572</v>
       </c>
       <c r="E6">
-        <v>8.39691354843508</v>
+        <v>13.66388402241124</v>
       </c>
       <c r="F6">
-        <v>21.23057533994274</v>
+        <v>30.75820808461308</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.74787802336849</v>
+        <v>20.69698423763965</v>
       </c>
       <c r="J6">
-        <v>5.730837300571548</v>
+        <v>9.947988192524026</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.71797713208987</v>
+        <v>16.0989314525613</v>
       </c>
       <c r="N6">
-        <v>12.06000406735812</v>
+        <v>17.54013863172743</v>
       </c>
       <c r="O6">
-        <v>15.13890019421857</v>
+        <v>22.95164858460283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.57812574614613</v>
+        <v>11.98085884854896</v>
       </c>
       <c r="C7">
-        <v>12.00405417794154</v>
+        <v>7.314025916031193</v>
       </c>
       <c r="D7">
-        <v>6.042294408994251</v>
+        <v>9.452745754855533</v>
       </c>
       <c r="E7">
-        <v>8.426736500710087</v>
+        <v>13.65757640365444</v>
       </c>
       <c r="F7">
-        <v>21.37149321165854</v>
+        <v>30.74596434485041</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.70582405869309</v>
+        <v>20.66647398832966</v>
       </c>
       <c r="J7">
-        <v>5.720073695874809</v>
+        <v>9.940025928398704</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.9404558582094</v>
+        <v>16.13831984809531</v>
       </c>
       <c r="N7">
-        <v>12.01640669922782</v>
+        <v>17.5246289270566</v>
       </c>
       <c r="O7">
-        <v>15.19553368508901</v>
+        <v>22.93389612243926</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.1952461717002</v>
+        <v>12.60760238019068</v>
       </c>
       <c r="C8">
-        <v>13.15596474796219</v>
+        <v>7.865541220452639</v>
       </c>
       <c r="D8">
-        <v>6.253168602833514</v>
+        <v>9.464100896948652</v>
       </c>
       <c r="E8">
-        <v>8.567405695974758</v>
+        <v>13.63453869026706</v>
       </c>
       <c r="F8">
-        <v>22.0262173621436</v>
+        <v>30.70978688691693</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>12.54680269826968</v>
+        <v>20.54168990985169</v>
       </c>
       <c r="J8">
-        <v>5.677865948342802</v>
+        <v>9.90736613914504</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.88758886578145</v>
+        <v>16.31642018386831</v>
       </c>
       <c r="N8">
-        <v>11.83136925379323</v>
+        <v>17.46006170892692</v>
       </c>
       <c r="O8">
-        <v>15.47517578403347</v>
+        <v>22.86806266419969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.01369354466001</v>
+        <v>13.76153456963661</v>
       </c>
       <c r="C9">
-        <v>15.16782880687216</v>
+        <v>8.848056819868189</v>
       </c>
       <c r="D9">
-        <v>6.666133956241375</v>
+        <v>9.496417740375152</v>
       </c>
       <c r="E9">
-        <v>8.875387801864536</v>
+        <v>13.60658677707742</v>
       </c>
       <c r="F9">
-        <v>23.42201553613215</v>
+        <v>30.7031228021819</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>12.34108638787917</v>
+        <v>20.33251997102028</v>
       </c>
       <c r="J9">
-        <v>5.61515210838063</v>
+        <v>9.852198443268408</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.68372092995414</v>
+        <v>16.67897920019148</v>
       </c>
       <c r="N9">
-        <v>11.49528306377776</v>
+        <v>17.34730797661248</v>
       </c>
       <c r="O9">
-        <v>16.13283332292745</v>
+        <v>22.78413090059655</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.87293437547048</v>
+        <v>14.55518933605272</v>
       </c>
       <c r="C10">
-        <v>16.49762215899997</v>
+        <v>9.505375168991524</v>
       </c>
       <c r="D10">
-        <v>6.96641620383249</v>
+        <v>9.52616232920936</v>
       </c>
       <c r="E10">
-        <v>9.120704321156357</v>
+        <v>13.59653245585856</v>
       </c>
       <c r="F10">
-        <v>24.50970241118921</v>
+        <v>30.73743428077262</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>12.26507674612467</v>
+        <v>20.20061897495418</v>
       </c>
       <c r="J10">
-        <v>5.582340333949909</v>
+        <v>9.817059750133648</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.0680639529818</v>
+        <v>16.95152496174481</v>
       </c>
       <c r="N10">
-        <v>11.26513265220779</v>
+        <v>17.27286232805357</v>
       </c>
       <c r="O10">
-        <v>16.68394910004127</v>
+        <v>22.75017517359004</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.67366384434428</v>
+        <v>14.90306539094041</v>
       </c>
       <c r="C11">
-        <v>17.07094730676607</v>
+        <v>9.789770093215983</v>
       </c>
       <c r="D11">
-        <v>7.101830891010098</v>
+        <v>9.540967197720123</v>
       </c>
       <c r="E11">
-        <v>9.236304346214551</v>
+        <v>13.59422815910752</v>
       </c>
       <c r="F11">
-        <v>25.01678205519171</v>
+        <v>30.76153681830911</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>12.24917180790536</v>
+        <v>20.14536765739785</v>
       </c>
       <c r="J11">
-        <v>5.570536205679559</v>
+        <v>9.802241258767889</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.66532649677056</v>
+        <v>17.07643441589398</v>
       </c>
       <c r="N11">
-        <v>11.16420673805657</v>
+        <v>17.24080618717749</v>
       </c>
       <c r="O11">
-        <v>16.94953907806195</v>
+        <v>22.74077200883913</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.97047204835431</v>
+        <v>15.03280613820741</v>
       </c>
       <c r="C12">
-        <v>17.28355680163327</v>
+        <v>9.895321555292577</v>
       </c>
       <c r="D12">
-        <v>7.152901187385402</v>
+        <v>9.546753788058806</v>
       </c>
       <c r="E12">
-        <v>9.280642692559718</v>
+        <v>13.59368114416963</v>
       </c>
       <c r="F12">
-        <v>25.21047120558762</v>
+        <v>30.77188140559823</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>12.24603472841195</v>
+        <v>20.12513085567826</v>
       </c>
       <c r="J12">
-        <v>5.566536709131225</v>
+        <v>9.796797293030277</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.88687871749132</v>
+        <v>17.12383231464363</v>
       </c>
       <c r="N12">
-        <v>11.12654534149971</v>
+        <v>17.22892673254154</v>
       </c>
       <c r="O12">
-        <v>17.0522530364686</v>
+        <v>22.73808168012653</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.90683310147652</v>
+        <v>15.00495420349512</v>
       </c>
       <c r="C13">
-        <v>17.23796670720218</v>
+        <v>9.872685008286599</v>
       </c>
       <c r="D13">
-        <v>7.141912105791462</v>
+        <v>9.545499570534224</v>
       </c>
       <c r="E13">
-        <v>9.271068787960834</v>
+        <v>13.59378448745613</v>
       </c>
       <c r="F13">
-        <v>25.16868397661952</v>
+        <v>30.76959944239109</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>12.24657877815967</v>
+        <v>20.12945867793541</v>
       </c>
       <c r="J13">
-        <v>5.567376792844094</v>
+        <v>9.797962303637965</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.83936799935965</v>
+        <v>17.11362056710825</v>
       </c>
       <c r="N13">
-        <v>11.13463135828766</v>
+        <v>17.23147365481148</v>
       </c>
       <c r="O13">
-        <v>17.03003655196267</v>
+        <v>22.73862236064704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.69821051648417</v>
+        <v>14.91377969376563</v>
       </c>
       <c r="C14">
-        <v>17.0885286401581</v>
+        <v>9.798497019048236</v>
       </c>
       <c r="D14">
-        <v>7.106036851037765</v>
+        <v>9.541439667388305</v>
       </c>
       <c r="E14">
-        <v>9.239940873775465</v>
+        <v>13.59417663581331</v>
       </c>
       <c r="F14">
-        <v>25.03268404456387</v>
+        <v>30.76236350079861</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>12.2488547217256</v>
+        <v>20.14368900740068</v>
       </c>
       <c r="J14">
-        <v>5.57019760834643</v>
+        <v>9.801790025303532</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.68364597149098</v>
+        <v>17.08033212259415</v>
       </c>
       <c r="N14">
-        <v>11.16109705398686</v>
+        <v>17.23982366026928</v>
       </c>
       <c r="O14">
-        <v>16.95794651823997</v>
+        <v>22.74053322273149</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.56959035242292</v>
+        <v>14.85767047947033</v>
       </c>
       <c r="C15">
-        <v>16.99640945720958</v>
+        <v>9.752774640461611</v>
       </c>
       <c r="D15">
-        <v>7.084034045184738</v>
+        <v>9.538976252822417</v>
       </c>
       <c r="E15">
-        <v>9.22094709416255</v>
+        <v>13.5944592118771</v>
       </c>
       <c r="F15">
-        <v>24.94959482504089</v>
+        <v>30.75808969033577</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>12.25063063098687</v>
+        <v>20.15249486367326</v>
       </c>
       <c r="J15">
-        <v>5.571987366992517</v>
+        <v>9.804156418691948</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.58766193820022</v>
+        <v>17.05995361050242</v>
       </c>
       <c r="N15">
-        <v>11.1773810857363</v>
+        <v>17.24497205513272</v>
       </c>
       <c r="O15">
-        <v>16.91406805754846</v>
+        <v>22.74181707109285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.81970400557368</v>
+        <v>14.53218113448667</v>
       </c>
       <c r="C16">
-        <v>16.45952210221306</v>
+        <v>9.486491436027064</v>
       </c>
       <c r="D16">
-        <v>6.957539348094417</v>
+        <v>9.525220188020237</v>
       </c>
       <c r="E16">
-        <v>9.113229071462611</v>
+        <v>13.59672865137274</v>
       </c>
       <c r="F16">
-        <v>24.47680218981909</v>
+        <v>30.73602973628604</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>12.26650898242963</v>
+        <v>20.20432559348502</v>
       </c>
       <c r="J16">
-        <v>5.583176399043167</v>
+        <v>9.8180516218045</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.02838224911672</v>
+        <v>16.94337741684661</v>
       </c>
       <c r="N16">
-        <v>11.27180548527078</v>
+        <v>17.27499362468003</v>
       </c>
       <c r="O16">
-        <v>16.66689178348743</v>
+        <v>22.75091143466536</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.34818184788473</v>
+        <v>14.32905761750765</v>
       </c>
       <c r="C17">
-        <v>16.12209770077596</v>
+        <v>9.319358942802605</v>
       </c>
       <c r="D17">
-        <v>6.879607050104246</v>
+        <v>9.517105567754994</v>
       </c>
       <c r="E17">
-        <v>9.048164028758187</v>
+        <v>13.59870163475667</v>
       </c>
       <c r="F17">
-        <v>24.1898330559839</v>
+        <v>30.72466979058216</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.28117389257003</v>
+        <v>20.23734068947727</v>
       </c>
       <c r="J17">
-        <v>5.590855098804122</v>
+        <v>9.826874422917783</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.67699928076326</v>
+        <v>16.87207354727384</v>
       </c>
       <c r="N17">
-        <v>11.33070733606802</v>
+        <v>17.29387385010854</v>
       </c>
       <c r="O17">
-        <v>16.51907068647674</v>
+        <v>22.75803957671031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.07273037201101</v>
+        <v>14.21099256471295</v>
       </c>
       <c r="C18">
-        <v>15.92504221601281</v>
+        <v>9.221854218464101</v>
       </c>
       <c r="D18">
-        <v>6.834672887480786</v>
+        <v>9.512558341149063</v>
       </c>
       <c r="E18">
-        <v>9.011118000078477</v>
+        <v>13.6000501100473</v>
       </c>
       <c r="F18">
-        <v>24.02593763379506</v>
+        <v>30.71893566975858</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.29135400183417</v>
+        <v>20.25677714683837</v>
       </c>
       <c r="J18">
-        <v>5.595564195280317</v>
+        <v>9.832058853997692</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.47183235682066</v>
+        <v>16.83115084836165</v>
       </c>
       <c r="N18">
-        <v>11.364940003826</v>
+        <v>17.30490362116299</v>
       </c>
       <c r="O18">
-        <v>16.43544915333153</v>
+        <v>22.76270828476732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.97873625877528</v>
+        <v>14.17080912926523</v>
       </c>
       <c r="C19">
-        <v>15.85780974386368</v>
+        <v>9.188606075284948</v>
       </c>
       <c r="D19">
-        <v>6.81944135988081</v>
+        <v>9.511039438762475</v>
       </c>
       <c r="E19">
-        <v>8.998640107341419</v>
+        <v>13.60054339960255</v>
       </c>
       <c r="F19">
-        <v>23.97064812002917</v>
+        <v>30.71713166465084</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.29509450194944</v>
+        <v>20.26343470332307</v>
       </c>
       <c r="J19">
-        <v>5.597208216885314</v>
+        <v>9.833833076862582</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.40183912689668</v>
+        <v>16.8173115764117</v>
       </c>
       <c r="N19">
-        <v>11.37659096443661</v>
+        <v>17.3086673941889</v>
       </c>
       <c r="O19">
-        <v>16.40737694648091</v>
+        <v>22.76438666771564</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.39881498899511</v>
+        <v>14.35080891992592</v>
       </c>
       <c r="C20">
-        <v>16.15832496593664</v>
+        <v>9.33729305757282</v>
       </c>
       <c r="D20">
-        <v>6.887914704275548</v>
+        <v>9.517956974599384</v>
       </c>
       <c r="E20">
-        <v>9.055051320124177</v>
+        <v>13.59846949871734</v>
       </c>
       <c r="F20">
-        <v>24.22026192749717</v>
+        <v>30.72579632251294</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>12.27943071917489</v>
+        <v>20.23377989059188</v>
       </c>
       <c r="J20">
-        <v>5.590007262135908</v>
+        <v>9.825923859605473</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.71472100076247</v>
+        <v>16.87965497377803</v>
       </c>
       <c r="N20">
-        <v>11.3244004085944</v>
+        <v>17.29184639091335</v>
       </c>
       <c r="O20">
-        <v>16.53466145919051</v>
+        <v>22.75722189437786</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.75966145832644</v>
+        <v>14.940614657793</v>
       </c>
       <c r="C21">
-        <v>17.13254384724181</v>
+        <v>9.820346261101751</v>
       </c>
       <c r="D21">
-        <v>7.116580216304387</v>
+        <v>9.542627289559345</v>
       </c>
       <c r="E21">
-        <v>9.24906871243865</v>
+        <v>13.59405262322749</v>
       </c>
       <c r="F21">
-        <v>25.07258594250554</v>
+        <v>30.76445586801838</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>12.24810628669949</v>
+        <v>20.13949058591614</v>
       </c>
       <c r="J21">
-        <v>5.569356120730983</v>
+        <v>9.800661187281037</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.72951020354981</v>
+        <v>17.09010738760545</v>
       </c>
       <c r="N21">
-        <v>11.15330818836302</v>
+        <v>17.23736402371489</v>
       </c>
       <c r="O21">
-        <v>16.97906301607586</v>
+        <v>22.73994832406414</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.61172055544576</v>
+        <v>15.31443673450961</v>
       </c>
       <c r="C22">
-        <v>17.74306939667426</v>
+        <v>10.12354696288454</v>
       </c>
       <c r="D22">
-        <v>7.2647977532713</v>
+        <v>9.559800295244006</v>
       </c>
       <c r="E22">
-        <v>9.379147195814063</v>
+        <v>13.59306317044494</v>
       </c>
       <c r="F22">
-        <v>25.63932134771633</v>
+        <v>30.79681578889584</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>12.24454963532365</v>
+        <v>20.08186486465046</v>
       </c>
       <c r="J22">
-        <v>5.558612501489877</v>
+        <v>9.785126638568615</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.36584245701386</v>
+        <v>17.22820141960693</v>
       </c>
       <c r="N22">
-        <v>11.0447452510911</v>
+        <v>17.20326896075469</v>
       </c>
       <c r="O22">
-        <v>17.28198242698015</v>
+        <v>22.73373293858851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16035345858114</v>
+        <v>15.11601637394319</v>
       </c>
       <c r="C23">
-        <v>17.41959921304307</v>
+        <v>9.962878185970808</v>
       </c>
       <c r="D23">
-        <v>7.18581504551029</v>
+        <v>9.550539697787192</v>
       </c>
       <c r="E23">
-        <v>9.309426066399821</v>
+        <v>13.59341795348191</v>
       </c>
       <c r="F23">
-        <v>25.33598622014511</v>
+        <v>30.77889725296063</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>12.24483299525367</v>
+        <v>20.11225417656545</v>
       </c>
       <c r="J23">
-        <v>5.56408724836293</v>
+        <v>9.793328485767045</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.02866218380999</v>
+        <v>17.15445941121227</v>
       </c>
       <c r="N23">
-        <v>11.10238385546612</v>
+        <v>17.22132798713882</v>
       </c>
       <c r="O23">
-        <v>17.11916730328737</v>
+        <v>22.73658562189202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.37593735351233</v>
+        <v>14.34097915596238</v>
       </c>
       <c r="C24">
-        <v>16.1419561719534</v>
+        <v>9.329189458028718</v>
       </c>
       <c r="D24">
-        <v>6.884159215341891</v>
+        <v>9.517571685873303</v>
       </c>
       <c r="E24">
-        <v>9.05193645112764</v>
+        <v>13.59857378021688</v>
       </c>
       <c r="F24">
-        <v>24.2065016414968</v>
+        <v>30.72528453494911</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>12.28021337511754</v>
+        <v>20.2353883086439</v>
       </c>
       <c r="J24">
-        <v>5.590389653375874</v>
+        <v>9.826353260123208</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.69767683342225</v>
+        <v>16.8762271874303</v>
       </c>
       <c r="N24">
-        <v>11.32725062159132</v>
+        <v>17.29276245916976</v>
       </c>
       <c r="O24">
-        <v>16.52760862611189</v>
+        <v>22.75758979113048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.28863570424879</v>
+        <v>13.45833705309719</v>
       </c>
       <c r="C25">
-        <v>14.64979433420752</v>
+        <v>8.593344972594998</v>
       </c>
       <c r="D25">
-        <v>6.554776600034369</v>
+        <v>9.486611571696974</v>
       </c>
       <c r="E25">
-        <v>8.788681816485512</v>
+        <v>13.61230591894635</v>
       </c>
       <c r="F25">
-        <v>23.03305379054864</v>
+        <v>30.69803711493694</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>12.38432396838611</v>
+        <v>20.3852903144539</v>
       </c>
       <c r="J25">
-        <v>5.629867102095933</v>
+        <v>9.866174316482027</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.15844603067903</v>
+        <v>16.57967132168928</v>
       </c>
       <c r="N25">
-        <v>11.58329673944491</v>
+        <v>17.37633269123383</v>
       </c>
       <c r="O25">
-        <v>15.94304996127811</v>
+        <v>22.80198136951048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77268770170901</v>
+        <v>18.60941043056109</v>
       </c>
       <c r="C2">
-        <v>8.008463659254954</v>
+        <v>13.45128317112337</v>
       </c>
       <c r="D2">
-        <v>9.467861914974392</v>
+        <v>6.310378363922714</v>
       </c>
       <c r="E2">
-        <v>13.62946272699476</v>
+        <v>8.607711143311656</v>
       </c>
       <c r="F2">
-        <v>30.70433110987688</v>
+        <v>22.21140423597288</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>20.51028001455473</v>
+        <v>12.51052532378967</v>
       </c>
       <c r="J2">
-        <v>9.899118514847508</v>
+        <v>5.66775047477956</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.36564763522152</v>
+        <v>14.13533586746065</v>
       </c>
       <c r="N2">
-        <v>17.44350750119754</v>
+        <v>11.78303188051667</v>
       </c>
       <c r="O2">
-        <v>22.85327421657271</v>
+        <v>15.55826943413917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28844379339649</v>
+        <v>17.38138660525009</v>
       </c>
       <c r="C3">
-        <v>7.586567973294988</v>
+        <v>12.57599312777183</v>
       </c>
       <c r="D3">
-        <v>9.457719728724125</v>
+        <v>6.144492899775581</v>
       </c>
       <c r="E3">
-        <v>13.64549136321961</v>
+        <v>8.493267481079608</v>
       </c>
       <c r="F3">
-        <v>30.72502909154314</v>
+        <v>21.68297177096615</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>20.60406842943532</v>
+        <v>12.62351343527818</v>
       </c>
       <c r="J3">
-        <v>9.92371257768349</v>
+        <v>5.698582049322227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.22393802648412</v>
+        <v>13.40669144228141</v>
       </c>
       <c r="N3">
-        <v>17.49257171515311</v>
+        <v>11.92524173872035</v>
       </c>
       <c r="O3">
-        <v>22.89958564744176</v>
+        <v>15.32552700751922</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.98255873707429</v>
+        <v>16.58262218617867</v>
       </c>
       <c r="C4">
-        <v>7.315542951004689</v>
+        <v>12.00725434331098</v>
       </c>
       <c r="D4">
-        <v>9.452769911162248</v>
+        <v>6.042852060773527</v>
       </c>
       <c r="E4">
-        <v>13.65750522157907</v>
+        <v>8.427090439669923</v>
       </c>
       <c r="F4">
-        <v>30.74583083609345</v>
+        <v>21.37316037649385</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>20.66612236587333</v>
+        <v>12.7053460244264</v>
       </c>
       <c r="J4">
-        <v>9.939934116059248</v>
+        <v>5.719950596269349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.13878318282101</v>
+        <v>12.94304089011806</v>
       </c>
       <c r="N4">
-        <v>17.52444956731057</v>
+        <v>12.01590056530787</v>
       </c>
       <c r="O4">
-        <v>22.93369522678506</v>
+        <v>15.19621247565802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85594305670649</v>
+        <v>16.24581807079775</v>
       </c>
       <c r="C5">
-        <v>7.202197511780051</v>
+        <v>11.76759245467188</v>
       </c>
       <c r="D5">
-        <v>9.451075920913773</v>
+        <v>6.001540555459498</v>
       </c>
       <c r="E5">
-        <v>13.66294735658087</v>
+        <v>8.401157162297935</v>
       </c>
       <c r="F5">
-        <v>30.75634032176895</v>
+        <v>21.25068246877463</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>20.69253136154929</v>
+        <v>12.74167088361047</v>
       </c>
       <c r="J5">
-        <v>9.946826644733601</v>
+        <v>5.729256393599035</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.10457990110735</v>
+        <v>12.75022185177261</v>
       </c>
       <c r="N5">
-        <v>17.53788156545411</v>
+        <v>12.05368039948646</v>
       </c>
       <c r="O5">
-        <v>22.94901834871412</v>
+        <v>15.14688828843884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.83480578874728</v>
+        <v>16.18920813616736</v>
       </c>
       <c r="C6">
-        <v>7.183205080059535</v>
+        <v>11.7273192950816</v>
       </c>
       <c r="D6">
-        <v>9.450814200735572</v>
+        <v>5.994688957841428</v>
       </c>
       <c r="E6">
-        <v>13.66388402241124</v>
+        <v>8.39691354843508</v>
       </c>
       <c r="F6">
-        <v>30.75820808461308</v>
+        <v>21.2305753399429</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>20.69698423763965</v>
+        <v>12.74787802336864</v>
       </c>
       <c r="J6">
-        <v>9.947988192524026</v>
+        <v>5.73083730057161</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.0989314525613</v>
+        <v>12.7179771320899</v>
       </c>
       <c r="N6">
-        <v>17.54013863172743</v>
+        <v>12.06000406735818</v>
       </c>
       <c r="O6">
-        <v>22.95164858460283</v>
+        <v>15.13890019421876</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.98085884854896</v>
+        <v>16.57812574614609</v>
       </c>
       <c r="C7">
-        <v>7.314025916031193</v>
+        <v>12.00405417794146</v>
       </c>
       <c r="D7">
-        <v>9.452745754855533</v>
+        <v>6.042294408994027</v>
       </c>
       <c r="E7">
-        <v>13.65757640365444</v>
+        <v>8.426736500709984</v>
       </c>
       <c r="F7">
-        <v>30.74596434485041</v>
+        <v>21.37149321165852</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>20.66647398832966</v>
+        <v>12.70582405869313</v>
       </c>
       <c r="J7">
-        <v>9.940025928398704</v>
+        <v>5.720073695874837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.13831984809531</v>
+        <v>12.9404558582094</v>
       </c>
       <c r="N7">
-        <v>17.5246289270566</v>
+        <v>12.01640669922782</v>
       </c>
       <c r="O7">
-        <v>22.93389612243926</v>
+        <v>15.1955336850891</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60760238019068</v>
+        <v>18.1952461717002</v>
       </c>
       <c r="C8">
-        <v>7.865541220452639</v>
+        <v>13.1559647479621</v>
       </c>
       <c r="D8">
-        <v>9.464100896948652</v>
+        <v>6.253168602833484</v>
       </c>
       <c r="E8">
-        <v>13.63453869026706</v>
+        <v>8.567405695974694</v>
       </c>
       <c r="F8">
-        <v>30.70978688691693</v>
+        <v>22.02621736214379</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>20.54168990985169</v>
+        <v>12.54680269826983</v>
       </c>
       <c r="J8">
-        <v>9.90736613914504</v>
+        <v>5.677865948342864</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.31642018386831</v>
+        <v>13.88758886578148</v>
       </c>
       <c r="N8">
-        <v>17.46006170892692</v>
+        <v>11.83136925379329</v>
       </c>
       <c r="O8">
-        <v>22.86806266419969</v>
+        <v>15.47517578403364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.76153456963661</v>
+        <v>21.01369354466001</v>
       </c>
       <c r="C9">
-        <v>8.848056819868189</v>
+        <v>15.16782880687224</v>
       </c>
       <c r="D9">
-        <v>9.496417740375152</v>
+        <v>6.666133956241313</v>
       </c>
       <c r="E9">
-        <v>13.60658677707742</v>
+        <v>8.875387801864495</v>
       </c>
       <c r="F9">
-        <v>30.7031228021819</v>
+        <v>23.42201553613206</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>20.33251997102028</v>
+        <v>12.34108638787914</v>
       </c>
       <c r="J9">
-        <v>9.852198443268408</v>
+        <v>5.615152108380629</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.67897920019148</v>
+        <v>15.68372092995416</v>
       </c>
       <c r="N9">
-        <v>17.34730797661248</v>
+        <v>11.4952830637777</v>
       </c>
       <c r="O9">
-        <v>22.78413090059655</v>
+        <v>16.1328333229274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.55518933605272</v>
+        <v>22.87293437547053</v>
       </c>
       <c r="C10">
-        <v>9.505375168991524</v>
+        <v>16.49762215899987</v>
       </c>
       <c r="D10">
-        <v>9.52616232920936</v>
+        <v>6.966416203832428</v>
       </c>
       <c r="E10">
-        <v>13.59653245585856</v>
+        <v>9.120704321156369</v>
       </c>
       <c r="F10">
-        <v>30.73743428077262</v>
+        <v>24.50970241118925</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>20.20061897495418</v>
+        <v>12.2650767461247</v>
       </c>
       <c r="J10">
-        <v>9.817059750133648</v>
+        <v>5.582340333949996</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.95152496174481</v>
+        <v>17.0680639529818</v>
       </c>
       <c r="N10">
-        <v>17.27286232805357</v>
+        <v>11.26513265220785</v>
       </c>
       <c r="O10">
-        <v>22.75017517359004</v>
+        <v>16.6839491000413</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.90306539094041</v>
+        <v>23.67366384434425</v>
       </c>
       <c r="C11">
-        <v>9.789770093215983</v>
+        <v>17.07094730676589</v>
       </c>
       <c r="D11">
-        <v>9.540967197720123</v>
+        <v>7.101830891009948</v>
       </c>
       <c r="E11">
-        <v>13.59422815910752</v>
+        <v>9.236304346214496</v>
       </c>
       <c r="F11">
-        <v>30.76153681830911</v>
+        <v>25.01678205519177</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>20.14536765739785</v>
+        <v>12.24917180790544</v>
       </c>
       <c r="J11">
-        <v>9.802241258767889</v>
+        <v>5.570536205679569</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.07643441589398</v>
+        <v>17.66532649677056</v>
       </c>
       <c r="N11">
-        <v>17.24080618717749</v>
+        <v>11.16420673805666</v>
       </c>
       <c r="O11">
-        <v>22.74077200883913</v>
+        <v>16.94953907806204</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.03280613820741</v>
+        <v>23.97047204835435</v>
       </c>
       <c r="C12">
-        <v>9.895321555292577</v>
+        <v>17.28355680163333</v>
       </c>
       <c r="D12">
-        <v>9.546753788058806</v>
+        <v>7.152901187385313</v>
       </c>
       <c r="E12">
-        <v>13.59368114416963</v>
+        <v>9.280642692559653</v>
       </c>
       <c r="F12">
-        <v>30.77188140559823</v>
+        <v>25.21047120558759</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>20.12513085567826</v>
+        <v>12.24603472841194</v>
       </c>
       <c r="J12">
-        <v>9.796797293030277</v>
+        <v>5.566536709131176</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.12383231464363</v>
+        <v>17.88687871749138</v>
       </c>
       <c r="N12">
-        <v>17.22892673254154</v>
+        <v>11.12654534149967</v>
       </c>
       <c r="O12">
-        <v>22.73808168012653</v>
+        <v>17.05225303646857</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.00495420349512</v>
+        <v>23.90683310147659</v>
       </c>
       <c r="C13">
-        <v>9.872685008286599</v>
+        <v>17.23796670720224</v>
       </c>
       <c r="D13">
-        <v>9.545499570534224</v>
+        <v>7.1419121057915</v>
       </c>
       <c r="E13">
-        <v>13.59378448745613</v>
+        <v>9.27106878796085</v>
       </c>
       <c r="F13">
-        <v>30.76959944239109</v>
+        <v>25.16868397661954</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>20.12945867793541</v>
+        <v>12.24657877815968</v>
       </c>
       <c r="J13">
-        <v>9.797962303637965</v>
+        <v>5.567376792844075</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.11362056710825</v>
+        <v>17.83936799935969</v>
       </c>
       <c r="N13">
-        <v>17.23147365481148</v>
+        <v>11.13463135828766</v>
       </c>
       <c r="O13">
-        <v>22.73862236064704</v>
+        <v>17.03003655196268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.91377969376563</v>
+        <v>23.69821051648412</v>
       </c>
       <c r="C14">
-        <v>9.798497019048236</v>
+        <v>17.0885286401581</v>
       </c>
       <c r="D14">
-        <v>9.541439667388305</v>
+        <v>7.106036851037835</v>
       </c>
       <c r="E14">
-        <v>13.59417663581331</v>
+        <v>9.239940873775456</v>
       </c>
       <c r="F14">
-        <v>30.76236350079861</v>
+        <v>25.03268404456393</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>20.14368900740068</v>
+        <v>12.24885472172567</v>
       </c>
       <c r="J14">
-        <v>9.801790025303532</v>
+        <v>5.57019760834643</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.08033212259415</v>
+        <v>17.68364597149093</v>
       </c>
       <c r="N14">
-        <v>17.23982366026928</v>
+        <v>11.16109705398689</v>
       </c>
       <c r="O14">
-        <v>22.74053322273149</v>
+        <v>16.95794651824001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.85767047947033</v>
+        <v>23.5695903524229</v>
       </c>
       <c r="C15">
-        <v>9.752774640461611</v>
+        <v>16.99640945720944</v>
       </c>
       <c r="D15">
-        <v>9.538976252822417</v>
+        <v>7.084034045184738</v>
       </c>
       <c r="E15">
-        <v>13.5944592118771</v>
+        <v>9.22094709416255</v>
       </c>
       <c r="F15">
-        <v>30.75808969033577</v>
+        <v>24.94959482504097</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>20.15249486367326</v>
+        <v>12.2506306309869</v>
       </c>
       <c r="J15">
-        <v>9.804156418691948</v>
+        <v>5.571987366992513</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.05995361050242</v>
+        <v>17.58766193820018</v>
       </c>
       <c r="N15">
-        <v>17.24497205513272</v>
+        <v>11.1773810857363</v>
       </c>
       <c r="O15">
-        <v>22.74181707109285</v>
+        <v>16.91406805754854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53218113448667</v>
+        <v>22.81970400557359</v>
       </c>
       <c r="C16">
-        <v>9.486491436027064</v>
+        <v>16.45952210221298</v>
       </c>
       <c r="D16">
-        <v>9.525220188020237</v>
+        <v>6.957539348094388</v>
       </c>
       <c r="E16">
-        <v>13.59672865137274</v>
+        <v>9.1132290714626</v>
       </c>
       <c r="F16">
-        <v>30.73602973628604</v>
+        <v>24.47680218981924</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>20.20432559348502</v>
+        <v>12.26650898242981</v>
       </c>
       <c r="J16">
-        <v>9.8180516218045</v>
+        <v>5.583176399043191</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.94337741684661</v>
+        <v>17.02838224911666</v>
       </c>
       <c r="N16">
-        <v>17.27499362468003</v>
+        <v>11.27180548527081</v>
       </c>
       <c r="O16">
-        <v>22.75091143466536</v>
+        <v>16.66689178348757</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.32905761750765</v>
+        <v>22.3481818478847</v>
       </c>
       <c r="C17">
-        <v>9.319358942802605</v>
+        <v>16.12209770077594</v>
       </c>
       <c r="D17">
-        <v>9.517105567754994</v>
+        <v>6.879607050104267</v>
       </c>
       <c r="E17">
-        <v>13.59870163475667</v>
+        <v>9.048164028758277</v>
       </c>
       <c r="F17">
-        <v>30.72466979058216</v>
+        <v>24.1898330559839</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>20.23734068947727</v>
+        <v>12.28117389257003</v>
       </c>
       <c r="J17">
-        <v>9.826874422917783</v>
+        <v>5.590855098804229</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.87207354727384</v>
+        <v>16.67699928076321</v>
       </c>
       <c r="N17">
-        <v>17.29387385010854</v>
+        <v>11.33070733606795</v>
       </c>
       <c r="O17">
-        <v>22.75803957671031</v>
+        <v>16.51907068647672</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21099256471295</v>
+        <v>22.07273037201104</v>
       </c>
       <c r="C18">
-        <v>9.221854218464101</v>
+        <v>15.92504221601271</v>
       </c>
       <c r="D18">
-        <v>9.512558341149063</v>
+        <v>6.834672887480756</v>
       </c>
       <c r="E18">
-        <v>13.6000501100473</v>
+        <v>9.011118000078518</v>
       </c>
       <c r="F18">
-        <v>30.71893566975858</v>
+        <v>24.02593763379515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>20.25677714683837</v>
+        <v>12.29135400183425</v>
       </c>
       <c r="J18">
-        <v>9.832058853997692</v>
+        <v>5.595564195280403</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.83115084836165</v>
+        <v>16.47183235682063</v>
       </c>
       <c r="N18">
-        <v>17.30490362116299</v>
+        <v>11.36494000382605</v>
       </c>
       <c r="O18">
-        <v>22.76270828476732</v>
+        <v>16.43544915333159</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17080912926523</v>
+        <v>21.97873625877531</v>
       </c>
       <c r="C19">
-        <v>9.188606075284948</v>
+        <v>15.85780974386363</v>
       </c>
       <c r="D19">
-        <v>9.511039438762475</v>
+        <v>6.819441359880721</v>
       </c>
       <c r="E19">
-        <v>13.60054339960255</v>
+        <v>8.998640107341371</v>
       </c>
       <c r="F19">
-        <v>30.71713166465084</v>
+        <v>23.97064812002915</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>20.26343470332307</v>
+        <v>12.29509450194947</v>
       </c>
       <c r="J19">
-        <v>9.833833076862582</v>
+        <v>5.597208216885343</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.8173115764117</v>
+        <v>16.40183912689669</v>
       </c>
       <c r="N19">
-        <v>17.3086673941889</v>
+        <v>11.37659096443661</v>
       </c>
       <c r="O19">
-        <v>22.76438666771564</v>
+        <v>16.40737694648093</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.35080891992592</v>
+        <v>22.39881498899526</v>
       </c>
       <c r="C20">
-        <v>9.33729305757282</v>
+        <v>16.15832496593659</v>
       </c>
       <c r="D20">
-        <v>9.517956974599384</v>
+        <v>6.887914704275556</v>
       </c>
       <c r="E20">
-        <v>13.59846949871734</v>
+        <v>9.055051320124207</v>
       </c>
       <c r="F20">
-        <v>30.72579632251294</v>
+        <v>24.22026192749713</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>20.23377989059188</v>
+        <v>12.27943071917477</v>
       </c>
       <c r="J20">
-        <v>9.825923859605473</v>
+        <v>5.590007262135963</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.87965497377803</v>
+        <v>16.71472100076251</v>
       </c>
       <c r="N20">
-        <v>17.29184639091335</v>
+        <v>11.32440040859441</v>
       </c>
       <c r="O20">
-        <v>22.75722189437786</v>
+        <v>16.53466145919047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.940614657793</v>
+        <v>23.75966145832641</v>
       </c>
       <c r="C21">
-        <v>9.820346261101751</v>
+        <v>17.13254384724183</v>
       </c>
       <c r="D21">
-        <v>9.542627289559345</v>
+        <v>7.116580216304411</v>
       </c>
       <c r="E21">
-        <v>13.59405262322749</v>
+        <v>9.249068712438586</v>
       </c>
       <c r="F21">
-        <v>30.76445586801838</v>
+        <v>25.07258594250557</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>20.13949058591614</v>
+        <v>12.24810628669954</v>
       </c>
       <c r="J21">
-        <v>9.800661187281037</v>
+        <v>5.569356120730905</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.09010738760545</v>
+        <v>17.72951020354983</v>
       </c>
       <c r="N21">
-        <v>17.23736402371489</v>
+        <v>11.15330818836298</v>
       </c>
       <c r="O21">
-        <v>22.73994832406414</v>
+        <v>16.97906301607588</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.31443673450961</v>
+        <v>24.61172055544583</v>
       </c>
       <c r="C22">
-        <v>10.12354696288454</v>
+        <v>17.74306939667418</v>
       </c>
       <c r="D22">
-        <v>9.559800295244006</v>
+        <v>7.26479775327126</v>
       </c>
       <c r="E22">
-        <v>13.59306317044494</v>
+        <v>9.379147195814046</v>
       </c>
       <c r="F22">
-        <v>30.79681578889584</v>
+        <v>25.63932134771633</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>20.08186486465046</v>
+        <v>12.24454963532352</v>
       </c>
       <c r="J22">
-        <v>9.785126638568615</v>
+        <v>5.55861250148986</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.22820141960693</v>
+        <v>18.36584245701392</v>
       </c>
       <c r="N22">
-        <v>17.20326896075469</v>
+        <v>11.044745251091</v>
       </c>
       <c r="O22">
-        <v>22.73373293858851</v>
+        <v>17.28198242698014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.11601637394319</v>
+        <v>24.16035345858111</v>
       </c>
       <c r="C23">
-        <v>9.962878185970808</v>
+        <v>17.41959921304301</v>
       </c>
       <c r="D23">
-        <v>9.550539697787192</v>
+        <v>7.185815045510225</v>
       </c>
       <c r="E23">
-        <v>13.59341795348191</v>
+        <v>9.309426066399777</v>
       </c>
       <c r="F23">
-        <v>30.77889725296063</v>
+        <v>25.3359862201451</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>20.11225417656545</v>
+        <v>12.24483299525373</v>
       </c>
       <c r="J23">
-        <v>9.793328485767045</v>
+        <v>5.564087248362952</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.15445941121227</v>
+        <v>18.02866218380998</v>
       </c>
       <c r="N23">
-        <v>17.22132798713882</v>
+        <v>11.10238385546616</v>
       </c>
       <c r="O23">
-        <v>22.73658562189202</v>
+        <v>17.11916730328739</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.34097915596238</v>
+        <v>22.37593735351236</v>
       </c>
       <c r="C24">
-        <v>9.329189458028718</v>
+        <v>16.14195617195341</v>
       </c>
       <c r="D24">
-        <v>9.517571685873303</v>
+        <v>6.884159215341748</v>
       </c>
       <c r="E24">
-        <v>13.59857378021688</v>
+        <v>9.051936451127565</v>
       </c>
       <c r="F24">
-        <v>30.72528453494911</v>
+        <v>24.20650164149675</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>20.2353883086439</v>
+        <v>12.28021337511756</v>
       </c>
       <c r="J24">
-        <v>9.826353260123208</v>
+        <v>5.590389653375874</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.8762271874303</v>
+        <v>16.69767683342229</v>
       </c>
       <c r="N24">
-        <v>17.29276245916976</v>
+        <v>11.32725062159131</v>
       </c>
       <c r="O24">
-        <v>22.75758979113048</v>
+        <v>16.5276086261119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.45833705309719</v>
+        <v>20.28863570424886</v>
       </c>
       <c r="C25">
-        <v>8.593344972594998</v>
+        <v>14.6497943342075</v>
       </c>
       <c r="D25">
-        <v>9.486611571696974</v>
+        <v>6.554776600034441</v>
       </c>
       <c r="E25">
-        <v>13.61230591894635</v>
+        <v>8.7886818164856</v>
       </c>
       <c r="F25">
-        <v>30.69803711493694</v>
+        <v>23.03305379054859</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>20.3852903144539</v>
+        <v>12.38432396838599</v>
       </c>
       <c r="J25">
-        <v>9.866174316482027</v>
+        <v>5.629867102095964</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.57967132168928</v>
+        <v>15.15844603067904</v>
       </c>
       <c r="N25">
-        <v>17.37633269123383</v>
+        <v>11.58329673944484</v>
       </c>
       <c r="O25">
-        <v>22.80198136951048</v>
+        <v>15.94304996127805</v>
       </c>
     </row>
   </sheetData>
